--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19500" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
+    <sheet name="#数据项" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +39,9 @@
     <t>ItemType</t>
   </si>
   <si>
+    <t>EquipType</t>
+  </si>
+  <si>
     <t>Quality</t>
   </si>
   <si>
@@ -116,6 +120,9 @@
     <t>物品类别</t>
   </si>
   <si>
+    <t>装备类型</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -239,12 +246,18 @@
     <t>装备</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>千里江陵一日还</t>
   </si>
   <si>
     <t>龙鸣战甲</t>
   </si>
   <si>
+    <t>胸甲</t>
+  </si>
+  <si>
     <t>黄沙百战穿金甲，不破楼兰终不还</t>
   </si>
   <si>
@@ -255,6 +268,45 @@
   </si>
   <si>
     <t>Prefabs/Item/Coin</t>
+  </si>
+  <si>
+    <t>物品类型</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>精良</t>
+  </si>
+  <si>
+    <t>护肩</t>
+  </si>
+  <si>
+    <t>腰带</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>耳环</t>
+  </si>
+  <si>
+    <t>披风</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -428,12 +480,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -761,7 +819,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,16 +843,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -803,94 +861,95 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1215,743 +1274,884 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.3833333333333" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="25.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.2083333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.825" style="3" customWidth="1"/>
-    <col min="12" max="21" width="9" style="3"/>
-    <col min="22" max="22" width="11.6333333333333" style="3" customWidth="1"/>
-    <col min="23" max="30" width="9" style="3"/>
-    <col min="31" max="31" width="27.6833333333333" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="14.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.3833333333333" style="4" customWidth="1"/>
+    <col min="7" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="25.6666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="37.2083333333333" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.825" style="4" customWidth="1"/>
+    <col min="13" max="22" width="9" style="4"/>
+    <col min="23" max="23" width="11.6333333333333" style="4" customWidth="1"/>
+    <col min="24" max="31" width="9" style="4"/>
+    <col min="32" max="32" width="27.6833333333333" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>25</v>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="W3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:23">
-      <c r="A4" s="3">
+    <row r="4" customHeight="1" spans="1:24">
+      <c r="A4" s="4">
         <v>1001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4">
+        <v>999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>100</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:24">
+      <c r="A5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4">
         <v>999</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H5" s="4">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I5" s="4">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>100</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:24">
+      <c r="A6" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:24">
+      <c r="A7" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="4">
+        <v>999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:24">
+      <c r="A8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:24">
+      <c r="A9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>600</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>150</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:24">
+      <c r="A10" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>100</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:23">
-      <c r="A5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3">
-        <v>999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3">
-        <v>50</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:23">
-      <c r="A6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="F10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
-      <c r="H6" s="3">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:23">
-      <c r="A7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3">
-        <v>999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
-      <c r="H7" s="3">
-        <v>50</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:23">
-      <c r="A8" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>50</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:23">
-      <c r="A9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>50</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:23">
-      <c r="A10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="K10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>'#数据项'!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>'#数据项'!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>'#数据项'!$C:$C</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowWidth="29370" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,15 @@
     <t>HpSteal</t>
   </si>
   <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -181,6 +190,15 @@
   </si>
   <si>
     <t>伤害吸血%</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>敏捷</t>
   </si>
   <si>
     <t>生命药剂</t>
@@ -1274,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1298,7 +1316,7 @@
     <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:24">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1371,170 +1389,197 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:24">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:24">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:27">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:24">
+    <row r="4" customHeight="1" spans="1:27">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G4" s="4">
         <v>999</v>
@@ -1546,10 +1591,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -1590,22 +1635,31 @@
       <c r="X4" s="4">
         <v>0</v>
       </c>
+      <c r="Y4" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:24">
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G5" s="4">
         <v>999</v>
@@ -1617,10 +1671,10 @@
         <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -1661,22 +1715,31 @@
       <c r="X5" s="4">
         <v>0</v>
       </c>
+      <c r="Y5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:24">
+    <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -1688,10 +1751,10 @@
         <v>50</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -1732,22 +1795,31 @@
       <c r="X6" s="4">
         <v>0</v>
       </c>
+      <c r="Y6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:24">
+    <row r="7" customHeight="1" spans="1:27">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G7" s="4">
         <v>999</v>
@@ -1759,10 +1831,10 @@
         <v>50</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -1803,25 +1875,34 @@
       <c r="X7" s="4">
         <v>0</v>
       </c>
+      <c r="Y7" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:24">
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1833,10 +1914,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L8" s="4">
         <v>2000</v>
@@ -1877,25 +1958,34 @@
       <c r="X8" s="4">
         <v>0</v>
       </c>
+      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:24">
+    <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -1907,10 +1997,10 @@
         <v>50</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -1951,22 +2041,31 @@
       <c r="X9" s="4">
         <v>0</v>
       </c>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="1:24">
+    <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1978,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -2021,6 +2120,15 @@
       </c>
       <c r="X10" s="4">
         <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2059,95 +2167,95 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29370" windowHeight="5880"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -1294,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1920,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,10 @@
     <t>可以恢复少量血量值</t>
   </si>
   <si>
-    <t>Texture/Inventory/hp</t>
-  </si>
-  <si>
-    <t>Prefabs/Item/Bottle_Health</t>
+    <t>UI/Texture/Inventory/hp</t>
+  </si>
+  <si>
+    <t>Combat/Prefabs/Item/Bottle_Health</t>
   </si>
   <si>
     <t>魔法药剂</t>
@@ -225,10 +225,10 @@
     <t>可以恢复少量魔法值</t>
   </si>
   <si>
-    <t>Texture/Inventory/mp</t>
-  </si>
-  <si>
-    <t>Prefabs/Item/Bottle_Mana</t>
+    <t>UI/Texture/Inventory/mp</t>
+  </si>
+  <si>
+    <t>Combat/Prefabs/Item/Bottle_Mana</t>
   </si>
   <si>
     <t>升仙令</t>
@@ -243,10 +243,10 @@
     <t>凭此令可入某修仙门派</t>
   </si>
   <si>
-    <t>Texture/Inventory/apple</t>
-  </si>
-  <si>
-    <t>Prefabs/Item/BoxOfPandora</t>
+    <t>UI/Texture/Inventory/apple</t>
+  </si>
+  <si>
+    <t>Combat/Prefabs/Item/BoxOfPandora</t>
   </si>
   <si>
     <t>升级卷轴</t>
@@ -285,7 +285,7 @@
     <t>买东西咯</t>
   </si>
   <si>
-    <t>Prefabs/Item/Coin</t>
+    <t>Combat/Prefabs/Item/Coin</t>
   </si>
   <si>
     <t>物品类型</t>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -216,7 +216,7 @@
     <t>UI/Texture/Inventory/hp</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Item/Bottle_Health</t>
+    <t>Item_Bottle_Health</t>
   </si>
   <si>
     <t>魔法药剂</t>
@@ -228,7 +228,7 @@
     <t>UI/Texture/Inventory/mp</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Item/Bottle_Mana</t>
+    <t>Item_Bottle_Mana</t>
   </si>
   <si>
     <t>升仙令</t>
@@ -246,7 +246,7 @@
     <t>UI/Texture/Inventory/apple</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Item/BoxOfPandora</t>
+    <t>Item_BoxOfPandora</t>
   </si>
   <si>
     <t>升级卷轴</t>
@@ -285,7 +285,7 @@
     <t>买东西咯</t>
   </si>
   <si>
-    <t>Combat/Prefabs/Item/Coin</t>
+    <t>Item_Coin</t>
   </si>
   <si>
     <t>物品类型</t>
@@ -1294,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>大凉龙雀</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大凉龙雀:
+默认前缀：Assets/Res/
+默认后缀：.prefab
+示例：Units/100
+代表:Assets/Res/Units/100.prefab
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
@@ -216,7 +253,7 @@
     <t>UI/Texture/Inventory/hp</t>
   </si>
   <si>
-    <t>Item_Bottle_Health</t>
+    <t>Items/Bottle_Health</t>
   </si>
   <si>
     <t>魔法药剂</t>
@@ -228,7 +265,7 @@
     <t>UI/Texture/Inventory/mp</t>
   </si>
   <si>
-    <t>Item_Bottle_Mana</t>
+    <t>Items/Bottle_Mana</t>
   </si>
   <si>
     <t>升仙令</t>
@@ -246,7 +283,7 @@
     <t>UI/Texture/Inventory/apple</t>
   </si>
   <si>
-    <t>Item_BoxOfPandora</t>
+    <t>Items/BoxOfPandora</t>
   </si>
   <si>
     <t>升级卷轴</t>
@@ -285,7 +322,7 @@
     <t>买东西咯</t>
   </si>
   <si>
-    <t>Item_Coin</t>
+    <t>Item/Coin</t>
   </si>
   <si>
     <t>物品类型</t>
@@ -337,7 +374,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +533,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1295,7 +1343,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2146,6 +2194,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
     <t>可以恢复少量血量值</t>
   </si>
   <si>
-    <t>UI/Texture/Inventory/hp</t>
+    <t>Texture/item_icon/hp</t>
   </si>
   <si>
     <t>Items/Bottle_Health</t>
@@ -262,7 +262,7 @@
     <t>可以恢复少量魔法值</t>
   </si>
   <si>
-    <t>UI/Texture/Inventory/mp</t>
+    <t>Texture/item_icon/mp</t>
   </si>
   <si>
     <t>Items/Bottle_Mana</t>
@@ -280,7 +280,7 @@
     <t>凭此令可入某修仙门派</t>
   </si>
   <si>
-    <t>UI/Texture/Inventory/apple</t>
+    <t>Texture/item_icon/apple</t>
   </si>
   <si>
     <t>Items/BoxOfPandora</t>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDefine" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,10 @@
     <t>可以恢复少量血量值</t>
   </si>
   <si>
-    <t>Texture/item_icon/hp</t>
-  </si>
-  <si>
-    <t>Items/Bottle_Health</t>
+    <t>Texture/item_icon/hp.png</t>
+  </si>
+  <si>
+    <t>Items/Bottle_Health.prefab</t>
   </si>
   <si>
     <t>魔法药剂</t>
@@ -262,10 +262,10 @@
     <t>可以恢复少量魔法值</t>
   </si>
   <si>
-    <t>Texture/item_icon/mp</t>
-  </si>
-  <si>
-    <t>Items/Bottle_Mana</t>
+    <t>Texture/item_icon/mp.png</t>
+  </si>
+  <si>
+    <t>Items/Bottle_Mana.prefab</t>
   </si>
   <si>
     <t>升仙令</t>
@@ -280,10 +280,10 @@
     <t>凭此令可入某修仙门派</t>
   </si>
   <si>
-    <t>Texture/item_icon/apple</t>
-  </si>
-  <si>
-    <t>Items/BoxOfPandora</t>
+    <t>Texture/item_icon/apple.png</t>
+  </si>
+  <si>
+    <t>Items/BoxOfPandora.prefab</t>
   </si>
   <si>
     <t>升级卷轴</t>
@@ -322,7 +322,7 @@
     <t>买东西咯</t>
   </si>
   <si>
-    <t>Item/Coin</t>
+    <t>Item/Coin.prefab</t>
   </si>
   <si>
     <t>物品类型</t>
@@ -1342,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -331,34 +331,37 @@
     <t>武器</t>
   </si>
   <si>
+    <t>头盔</t>
+  </si>
+  <si>
     <t>精良</t>
   </si>
   <si>
-    <t>护肩</t>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>护腕</t>
+  </si>
+  <si>
+    <t>手镯</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>戒指</t>
   </si>
   <si>
     <t>腰带</t>
   </si>
   <si>
-    <t>史诗</t>
-  </si>
-  <si>
     <t>裤子</t>
   </si>
   <si>
-    <t>传说</t>
-  </si>
-  <si>
-    <t>戒指</t>
-  </si>
-  <si>
-    <t>项链</t>
-  </si>
-  <si>
-    <t>耳环</t>
-  </si>
-  <si>
-    <t>披风</t>
+    <t>翅膀</t>
   </si>
   <si>
     <t>无</t>
@@ -1343,7 +1346,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2201,10 +2204,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2241,10 +2244,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2252,7 +2255,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -2276,35 +2279,40 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -238,6 +238,24 @@
     <t>敏捷</t>
   </si>
   <si>
+    <t>域外天魔徽章</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>从异世界来的穿越者称之为域外天魔，无法沟通并且具有攻击性，并且不受宿命影响，徽章从穿越而来时伴生。</t>
+  </si>
+  <si>
+    <t>Texture/item_icon/apple.png</t>
+  </si>
+  <si>
+    <t>Items/BoxOfPandora.prefab</t>
+  </si>
+  <si>
     <t>生命药剂</t>
   </si>
   <si>
@@ -271,21 +289,12 @@
     <t>升仙令</t>
   </si>
   <si>
-    <t>道具</t>
-  </si>
-  <si>
     <t>稀有</t>
   </si>
   <si>
     <t>凭此令可入某修仙门派</t>
   </si>
   <si>
-    <t>Texture/item_icon/apple.png</t>
-  </si>
-  <si>
-    <t>Items/BoxOfPandora.prefab</t>
-  </si>
-  <si>
     <t>升级卷轴</t>
   </si>
   <si>
@@ -347,9 +356,6 @@
   </si>
   <si>
     <t>手镯</t>
-  </si>
-  <si>
-    <t>传说</t>
   </si>
   <si>
     <t>戒指</t>
@@ -1012,13 +1018,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1343,28 +1352,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="4" customWidth="1"/>
-    <col min="4" max="5" width="14.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.3833333333333" style="4" customWidth="1"/>
-    <col min="7" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="25.6666666666667" style="4" customWidth="1"/>
-    <col min="11" max="11" width="37.2083333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.825" style="4" customWidth="1"/>
-    <col min="13" max="22" width="9" style="4"/>
-    <col min="23" max="23" width="11.6333333333333" style="4" customWidth="1"/>
-    <col min="24" max="31" width="9" style="4"/>
-    <col min="32" max="32" width="27.6833333333333" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="20.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="5" customWidth="1"/>
+    <col min="4" max="5" width="14.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.3833333333333" style="5" customWidth="1"/>
+    <col min="7" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="25.6666666666667" style="5" customWidth="1"/>
+    <col min="11" max="11" width="37.2083333333333" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.825" style="5" customWidth="1"/>
+    <col min="13" max="22" width="9" style="5"/>
+    <col min="23" max="23" width="11.6333333333333" style="5" customWidth="1"/>
+    <col min="24" max="31" width="9" style="5"/>
+    <col min="32" max="32" width="27.6833333333333" style="5" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="1:27">
@@ -1616,9 +1625,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" s="4" customFormat="1" ht="48" customHeight="1" spans="1:27">
       <c r="A4" s="4">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>57</v>
@@ -1633,25 +1642,25 @@
         <v>60</v>
       </c>
       <c r="G4" s="4">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>50</v>
-      </c>
-      <c r="J4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
@@ -1687,498 +1696,578 @@
         <v>0</v>
       </c>
       <c r="Y4" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="4">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="4">
+      <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="5">
         <v>999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>100</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>50</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="J5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
         <v>100</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="5">
         <v>10</v>
       </c>
-      <c r="Z5" s="4">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>20</v>
+      <c r="AA5" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:27">
-      <c r="A6" s="4">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="5">
+        <v>999</v>
+      </c>
+      <c r="H6" s="5">
         <v>100</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>50</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
         <v>10</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="5">
         <v>20</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:27">
-      <c r="A7" s="4">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="4">
-        <v>999</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>100</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>50</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
+      <c r="J7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="5">
         <v>20</v>
       </c>
-      <c r="Z7" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>10</v>
+      <c r="AA7" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:27">
-      <c r="A8" s="4">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="5">
+        <v>999</v>
+      </c>
+      <c r="H8" s="5">
         <v>100</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="4">
-        <v>3000</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>1</v>
+      <c r="J8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:27">
-      <c r="A9" s="4">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>100</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>50</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>600</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>150</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
+      <c r="J9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
         <v>1</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="5">
         <v>1</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:27">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>600</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>150</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:27">
+      <c r="A11" s="5">
         <v>1007</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="J11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
         <v>1</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z11" s="5">
         <v>1</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2219,7 +2308,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
@@ -2230,89 +2319,89 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/ItemDefine.xlsx
+++ b/Tools/excel2json/excel/ItemDefine.xlsx
@@ -253,7 +253,7 @@
     <t>Texture/item_icon/apple.png</t>
   </si>
   <si>
-    <t>Items/BoxOfPandora.prefab</t>
+    <t>Model/Items/BoxOfPandora.prefab</t>
   </si>
   <si>
     <t>生命药剂</t>
@@ -271,7 +271,7 @@
     <t>Texture/item_icon/hp.png</t>
   </si>
   <si>
-    <t>Items/Bottle_Health.prefab</t>
+    <t>Model/Items/Bottle_Health.prefab</t>
   </si>
   <si>
     <t>魔法药剂</t>
@@ -283,7 +283,7 @@
     <t>Texture/item_icon/mp.png</t>
   </si>
   <si>
-    <t>Items/Bottle_Mana.prefab</t>
+    <t>Model/Items/Bottle_Mana.prefab</t>
   </si>
   <si>
     <t>升仙令</t>
@@ -331,7 +331,7 @@
     <t>买东西咯</t>
   </si>
   <si>
-    <t>Item/Coin.prefab</t>
+    <t>Model/Items/Coin.prefab</t>
   </si>
   <si>
     <t>物品类型</t>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2060,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="L9" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
